--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Yoro']</t>
-  </si>
-  <si>
-    <t>['Lienard']</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
-  </si>
-  <si>
-    <t>['Cisse']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Laporte']</t>
+    <t>['Merdji', 'Bain', 'Danois']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", 'Lebas', 'Roure', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Kalimuendo', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Alioui', 'Capelle']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>['Serhuis']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Majer', 'Theate', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Mbappe', 'Mbappe', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Serrano', 'Jakobs', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Diop', 'Diop']</t>
+    <t>['Gastien', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Lopez', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Aouar']</t>
+  </si>
+  <si>
+    <t>['Palaversa']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Ben_Seguir', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Diop', 'Diop', 'Attal']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Merdji', 'Bain', 'Danois']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Lebas', 'Roure', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Kalimuendo', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Alioui', 'Capelle']</t>
+    <t>['Yoro', 'David', 'Gomes', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Girotto', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Matsima']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Bain']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Magnetti', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Messi']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Lopez', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Palaversa']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Ben_Seguir', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Diop', 'Diop', 'Attal']</t>
+    <t>['Pele', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Moalida', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Lega']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Majer', 'Rodon', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Diallo', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Sylla']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Onaiwu']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,34 +40,73 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Yoro', 'David', 'Gomes', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Girotto', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Bain']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Magnetti', 'Magnetti']</t>
+    <t>['Ripart', 'Ripart', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Sainte-Luce', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Theate', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Diop', 'Pepe', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Pele', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Clauss']</t>
+  </si>
+  <si>
+    <t>['Talbi']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Lille</t>
@@ -76,88 +115,46 @@
     <t>Nantes</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Pele', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Moalida', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Lega']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Majer', 'Rodon', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Diallo', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Sylla']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Onaiwu']</t>
+    <t>['Brassier', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Delaine', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Wieteska']</t>
+  </si>
+  <si>
+    <t>['David', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Ito']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'ChaÃ¯bi', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -607,10 +604,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -636,10 +633,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +657,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,12 +686,12 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -709,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,12 +715,12 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -744,7 +741,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -752,10 +749,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,27 +761,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -802,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -810,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ripart', 'Ripart', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Sainte-Luce', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Theate', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Pepe', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Pele', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Clauss']</t>
-  </si>
-  <si>
-    <t>['Talbi']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
+    <t>['Dante', 'Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Soler', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Jakobs', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Gastien', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Santamaria']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Lienard', 'Delaine', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Wieteska']</t>
-  </si>
-  <si>
-    <t>['David', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Ito']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'ChaÃ¯bi', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Ramos']</t>
+    <t>['Lopez', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Duverne']</t>
+  </si>
+  <si>
+    <t>['Rongier']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Mollet', 'Delort']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Gameiro', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Boura']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -570,12 +570,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,12 +599,12 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -628,12 +628,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -645,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,12 +657,12 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -674,27 +674,27 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,16 +703,16 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -732,24 +732,24 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -761,10 +761,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -773,15 +773,15 @@
         <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -802,12 +802,12 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -40,31 +40,31 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ripart', 'Ripart', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Sainte-Luce', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Theate', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Pepe', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Pele', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Clauss']</t>
-  </si>
-  <si>
-    <t>['Talbi']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
+    <t>['Ripart', 'Chavalerin', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Jakobs', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Dugimont', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Kipembe']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Spierings', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Guessand']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'H.Diallo', 'Lienard']</t>
   </si>
   <si>
     <t>[]</t>
@@ -73,88 +73,88 @@
     <t>Troyes</t>
   </si>
   <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Lienard', 'Delaine', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Wieteska']</t>
-  </si>
-  <si>
-    <t>['David', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Ito']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'ChaÃ¯bi', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Ramos']</t>
+    <t>['Harit']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Boura', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Savanier', 'Germain', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Roure']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,12 +570,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,12 +628,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -645,19 +645,19 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,24 +677,24 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,13 +706,13 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -732,24 +732,24 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -761,10 +761,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -773,15 +773,15 @@
         <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,10 +790,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -802,12 +802,12 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Dante', 'Beka', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Jakobs', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Gastien', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Santamaria']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Lienard', 'Delaine', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Burlet', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Borges', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Ponceau']</t>
+  </si>
+  <si>
+    <t>['Lipinski']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Rodon']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Duverne']</t>
-  </si>
-  <si>
-    <t>['Rongier']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Mollet', 'Delort']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Gameiro', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Boura']</t>
+    <t>['Pele', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Tavares']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Ounahi']</t>
+  </si>
+  <si>
+    <t>['Palaversa']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Flips', 'Ito', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Varane', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Masson']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -633,10 +636,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,21 +680,21 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -703,16 +706,16 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -720,10 +723,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,21 +767,21 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,13 +796,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -819,16 +822,16 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lopy', 'Serhuis', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Versini']</t>
+    <t>['Hamouma', 'Roure', 'Roure', 'Alphonse', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Aouar', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Innocent']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Bryan']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Fonte']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Spierings', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Jakobs', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Girotto', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Pepe']</t>
+    <t>['Blas', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Duverne']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Embolo']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Gastien']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Perrin', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Van_den_Boomen', 'Dejaegere']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,16 +558,16 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,16 +587,16 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -607,7 +604,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -628,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -636,10 +633,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,24 +648,24 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,24 +677,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,24 +706,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,24 +735,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,21 +764,21 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,16 +790,16 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Hamouma', 'Roure', 'Roure', 'Alphonse', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Aouar', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Bryan']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Fonte']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Le_Douaron', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Ribeiro', 'David']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Lopy']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Blas', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Duverne']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Embolo']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Perrin', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Van_den_Boomen', 'Dejaegere']</t>
+    <t>['Gastien', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Pallois']</t>
+  </si>
+  <si>
+    <t>['Caqueret']</t>
+  </si>
+  <si>
+    <t>['Capelle']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Fortes', 'Boura', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Assignon', 'Terrier', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Germain', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Aguilar']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Tavares', 'Le_Douaron', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Ribeiro', 'David']</t>
-  </si>
-  <si>
-    <t>['Silla', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Lopy']</t>
+    <t>['Merdji', 'Lipinski', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Djiku', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Fonte', 'David', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Theate']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>['Borges', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Beka', 'Brahimi']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Pallois']</t>
-  </si>
-  <si>
-    <t>['Caqueret']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Fortes', 'Boura', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Assignon', 'Terrier', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Germain', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Aguilar']</t>
+    <t>['Bamba']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Pelon', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Elis', 'Elis']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -591,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -599,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -614,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -623,18 +620,18 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -646,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -661,15 +658,15 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -696,18 +693,18 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -719,27 +716,27 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -760,21 +757,21 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -789,27 +786,27 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -830,24 +827,24 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -856,30 +853,30 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -891,16 +888,16 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>3</v>

--- a/jour7.xlsx
+++ b/jour7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,121 +46,118 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Merdji', 'Lipinski', 'Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Djiku', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Fonte', 'David', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Theate']</t>
+    <t>['Nordin', 'Maouassa', 'Sainte-Luce', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Versini', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Mendy']</t>
+  </si>
+  <si>
+    <t>['Alphonse']</t>
+  </si>
+  <si>
+    <t>['Balerdi']</t>
+  </si>
+  <si>
+    <t>['Brassier']</t>
+  </si>
+  <si>
+    <t>['Odobert']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Delort']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>['Borges', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Beka', 'Brahimi']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Bamba']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Pelon', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Elis', 'Elis']</t>
+    <t>['Jakobs', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Cherki', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Gouiri', 'Theate']</t>
   </si>
 </sst>
 </file>
@@ -558,10 +555,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -573,10 +570,10 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -588,15 +585,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -608,10 +605,10 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -623,15 +620,15 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -643,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -652,21 +649,21 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -678,33 +675,33 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -713,10 +710,10 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -725,18 +722,18 @@
         <v>42</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -748,33 +745,33 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -783,33 +780,33 @@
         <v>26</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -818,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -827,24 +824,24 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -853,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -862,21 +859,21 @@
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>4</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -888,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -897,13 +894,13 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
